--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf18-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf18-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Fgfr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>10.019353</v>
+        <v>0.1601763333333333</v>
       </c>
       <c r="H2">
-        <v>30.058059</v>
+        <v>0.480529</v>
       </c>
       <c r="I2">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="J2">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N2">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O2">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P2">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q2">
-        <v>0.519112698283</v>
+        <v>0.05862363033411111</v>
       </c>
       <c r="R2">
-        <v>4.672014284547</v>
+        <v>0.527612673007</v>
       </c>
       <c r="S2">
-        <v>0.0009338617666846182</v>
+        <v>9.502664582644554E-05</v>
       </c>
       <c r="T2">
-        <v>0.0009338617666846182</v>
+        <v>9.502664582644555E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>10.019353</v>
+        <v>0.1601763333333333</v>
       </c>
       <c r="H3">
-        <v>30.058059</v>
+        <v>0.480529</v>
       </c>
       <c r="I3">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="J3">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.273934</v>
       </c>
       <c r="O3">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P3">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q3">
-        <v>0.9148804815673335</v>
+        <v>0.01462591456511111</v>
       </c>
       <c r="R3">
-        <v>8.233924334106002</v>
+        <v>0.131633231086</v>
       </c>
       <c r="S3">
-        <v>0.001645831253305181</v>
+        <v>2.370804392947936E-05</v>
       </c>
       <c r="T3">
-        <v>0.001645831253305181</v>
+        <v>2.370804392947936E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>10.019353</v>
+        <v>0.1601763333333333</v>
       </c>
       <c r="H4">
-        <v>30.058059</v>
+        <v>0.480529</v>
       </c>
       <c r="I4">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="J4">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N4">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O4">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P4">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q4">
-        <v>502.4110079351211</v>
+        <v>8.633037773007667</v>
       </c>
       <c r="R4">
-        <v>4521.69907141609</v>
+        <v>77.69733995706899</v>
       </c>
       <c r="S4">
-        <v>0.9038161328434927</v>
+        <v>0.01399382157308298</v>
       </c>
       <c r="T4">
-        <v>0.9038161328434927</v>
+        <v>0.01399382157308298</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>10.019353</v>
+        <v>0.1601763333333333</v>
       </c>
       <c r="H5">
-        <v>30.058059</v>
+        <v>0.480529</v>
       </c>
       <c r="I5">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="J5">
-        <v>0.9071594532571753</v>
+        <v>0.01412814675921196</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04236633333333333</v>
+        <v>0.06004666666666667</v>
       </c>
       <c r="N5">
-        <v>0.127099</v>
+        <v>0.18014</v>
       </c>
       <c r="O5">
-        <v>0.0008417785770196733</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="P5">
-        <v>0.0008417785770196732</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="Q5">
-        <v>0.4244832489823334</v>
+        <v>0.009618054895555556</v>
       </c>
       <c r="R5">
-        <v>3.820349240841</v>
+        <v>0.08656249406000001</v>
       </c>
       <c r="S5">
-        <v>0.0007636273936927698</v>
+        <v>1.559049637305487E-05</v>
       </c>
       <c r="T5">
-        <v>0.0007636273936927698</v>
+        <v>1.559049637305487E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>10.019353</v>
+      </c>
+      <c r="H6">
+        <v>30.058059</v>
+      </c>
+      <c r="I6">
+        <v>0.8837441004581448</v>
+      </c>
+      <c r="J6">
+        <v>0.8837441004581448</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.898936</v>
-      </c>
-      <c r="H6">
-        <v>2.696808</v>
-      </c>
-      <c r="I6">
-        <v>0.08139031435195386</v>
-      </c>
-      <c r="J6">
-        <v>0.08139031435195386</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M6">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N6">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O6">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P6">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q6">
-        <v>0.04657477309599999</v>
+        <v>3.667026421666333</v>
       </c>
       <c r="R6">
-        <v>0.4191729578639999</v>
+        <v>33.003237794997</v>
       </c>
       <c r="S6">
-        <v>8.378604497679678E-05</v>
+        <v>0.005944108527941922</v>
       </c>
       <c r="T6">
-        <v>8.378604497679678E-05</v>
+        <v>0.005944108527941923</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.898936</v>
+        <v>10.019353</v>
       </c>
       <c r="H7">
-        <v>2.696808</v>
+        <v>30.058059</v>
       </c>
       <c r="I7">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="J7">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.273934</v>
       </c>
       <c r="O7">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P7">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q7">
-        <v>0.08208304474133334</v>
+        <v>0.9148804815673335</v>
       </c>
       <c r="R7">
-        <v>0.738747402672</v>
+        <v>8.233924334106</v>
       </c>
       <c r="S7">
-        <v>0.0001476639223631652</v>
+        <v>0.001482986007518553</v>
       </c>
       <c r="T7">
-        <v>0.0001476639223631652</v>
+        <v>0.001482986007518553</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.898936</v>
+        <v>10.019353</v>
       </c>
       <c r="H8">
-        <v>2.696808</v>
+        <v>30.058059</v>
       </c>
       <c r="I8">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="J8">
-        <v>0.08139031435195386</v>
+        <v>0.8837441004581448</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N8">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O8">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P8">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q8">
-        <v>45.076298023352</v>
+        <v>540.013940324711</v>
       </c>
       <c r="R8">
-        <v>405.686682210168</v>
+        <v>4860.125462922399</v>
       </c>
       <c r="S8">
-        <v>0.08109035176161553</v>
+        <v>0.8753417889018166</v>
       </c>
       <c r="T8">
-        <v>0.08109035176161553</v>
+        <v>0.8753417889018166</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.019353</v>
+      </c>
+      <c r="H9">
+        <v>30.058059</v>
+      </c>
+      <c r="I9">
+        <v>0.8837441004581448</v>
+      </c>
+      <c r="J9">
+        <v>0.8837441004581448</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.898936</v>
-      </c>
-      <c r="H9">
-        <v>2.696808</v>
-      </c>
-      <c r="I9">
-        <v>0.08139031435195386</v>
-      </c>
-      <c r="J9">
-        <v>0.08139031435195386</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M9">
-        <v>0.04236633333333333</v>
+        <v>0.06004666666666667</v>
       </c>
       <c r="N9">
-        <v>0.127099</v>
+        <v>0.18014</v>
       </c>
       <c r="O9">
-        <v>0.0008417785770196733</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="P9">
-        <v>0.0008417785770196732</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="Q9">
-        <v>0.03808462222133333</v>
+        <v>0.6016287498066668</v>
       </c>
       <c r="R9">
-        <v>0.342761599992</v>
+        <v>5.414658748260001</v>
       </c>
       <c r="S9">
-        <v>6.851262299837161E-05</v>
+        <v>0.0009752170208677712</v>
       </c>
       <c r="T9">
-        <v>6.851262299837161E-05</v>
+        <v>0.0009752170208677713</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.126465</v>
+        <v>1.010195666666666</v>
       </c>
       <c r="H10">
-        <v>0.379395</v>
+        <v>3.030587</v>
       </c>
       <c r="I10">
-        <v>0.01145023239087081</v>
+        <v>0.08910300502687639</v>
       </c>
       <c r="J10">
-        <v>0.01145023239087081</v>
+        <v>0.0891030050268764</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N10">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O10">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P10">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q10">
-        <v>0.006552278114999999</v>
+        <v>0.3697258895578888</v>
       </c>
       <c r="R10">
-        <v>0.05897050303499999</v>
+        <v>3.327533006021</v>
       </c>
       <c r="S10">
-        <v>1.178727092695209E-05</v>
+        <v>0.0005993114203205844</v>
       </c>
       <c r="T10">
-        <v>1.178727092695209E-05</v>
+        <v>0.0005993114203205845</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.126465</v>
+        <v>1.010195666666666</v>
       </c>
       <c r="H11">
-        <v>0.379395</v>
+        <v>3.030587</v>
       </c>
       <c r="I11">
-        <v>0.01145023239087081</v>
+        <v>0.08910300502687639</v>
       </c>
       <c r="J11">
-        <v>0.01145023239087081</v>
+        <v>0.0891030050268764</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.273934</v>
       </c>
       <c r="O11">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P11">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q11">
-        <v>0.01154768777</v>
+        <v>0.09224231325088889</v>
       </c>
       <c r="R11">
-        <v>0.10392918993</v>
+        <v>0.8301808192579999</v>
       </c>
       <c r="S11">
-        <v>2.077380140706089E-05</v>
+        <v>0.0001495212354053742</v>
       </c>
       <c r="T11">
-        <v>2.077380140706088E-05</v>
+        <v>0.0001495212354053742</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.126465</v>
+        <v>1.010195666666666</v>
       </c>
       <c r="H12">
-        <v>0.379395</v>
+        <v>3.030587</v>
       </c>
       <c r="I12">
-        <v>0.01145023239087081</v>
+        <v>0.08910300502687639</v>
       </c>
       <c r="J12">
-        <v>0.01145023239087081</v>
+        <v>0.0891030050268764</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N12">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O12">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P12">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q12">
-        <v>6.341468168505</v>
+        <v>54.44660373335633</v>
       </c>
       <c r="R12">
-        <v>57.073213516545</v>
+        <v>490.0194336002069</v>
       </c>
       <c r="S12">
-        <v>0.01140803275820827</v>
+        <v>0.08825584666004511</v>
       </c>
       <c r="T12">
-        <v>0.01140803275820827</v>
+        <v>0.08825584666004514</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.010195666666666</v>
+      </c>
+      <c r="H13">
+        <v>3.030587</v>
+      </c>
+      <c r="I13">
+        <v>0.08910300502687639</v>
+      </c>
+      <c r="J13">
+        <v>0.0891030050268764</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.06004666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.18014</v>
+      </c>
+      <c r="O13">
+        <v>0.001103506117169219</v>
+      </c>
+      <c r="P13">
+        <v>0.001103506117169219</v>
+      </c>
+      <c r="Q13">
+        <v>0.06065888246444444</v>
+      </c>
+      <c r="R13">
+        <v>0.54592994218</v>
+      </c>
+      <c r="S13">
+        <v>9.832571110531773E-05</v>
+      </c>
+      <c r="T13">
+        <v>9.832571110531776E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1476666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.443</v>
+      </c>
+      <c r="I14">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="J14">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3659943333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.097983</v>
+      </c>
+      <c r="O14">
+        <v>0.006726051721149161</v>
+      </c>
+      <c r="P14">
+        <v>0.006726051721149162</v>
+      </c>
+      <c r="Q14">
+        <v>0.05404516322222222</v>
+      </c>
+      <c r="R14">
+        <v>0.486406469</v>
+      </c>
+      <c r="S14">
+        <v>8.760512706020943E-05</v>
+      </c>
+      <c r="T14">
+        <v>8.760512706020944E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1476666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.443</v>
+      </c>
+      <c r="I15">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="J15">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.09131133333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.273934</v>
+      </c>
+      <c r="O15">
+        <v>0.001678071748088335</v>
+      </c>
+      <c r="P15">
+        <v>0.001678071748088335</v>
+      </c>
+      <c r="Q15">
+        <v>0.01348364022222222</v>
+      </c>
+      <c r="R15">
+        <v>0.121352762</v>
+      </c>
+      <c r="S15">
+        <v>2.185646123492933E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.185646123492933E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.126465</v>
-      </c>
-      <c r="H13">
-        <v>0.379395</v>
-      </c>
-      <c r="I13">
-        <v>0.01145023239087081</v>
-      </c>
-      <c r="J13">
-        <v>0.01145023239087081</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="G16">
+        <v>0.1476666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.443</v>
+      </c>
+      <c r="I16">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="J16">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>53.897087</v>
+      </c>
+      <c r="N16">
+        <v>161.691261</v>
+      </c>
+      <c r="O16">
+        <v>0.9904923704135933</v>
+      </c>
+      <c r="P16">
+        <v>0.9904923704135934</v>
+      </c>
+      <c r="Q16">
+        <v>7.958803180333334</v>
+      </c>
+      <c r="R16">
+        <v>71.629228623</v>
+      </c>
+      <c r="S16">
+        <v>0.01290091327864866</v>
+      </c>
+      <c r="T16">
+        <v>0.01290091327864866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M13">
-        <v>0.04236633333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.127099</v>
-      </c>
-      <c r="O13">
-        <v>0.0008417785770196733</v>
-      </c>
-      <c r="P13">
-        <v>0.0008417785770196732</v>
-      </c>
-      <c r="Q13">
-        <v>0.005357858345</v>
-      </c>
-      <c r="R13">
-        <v>0.04822072510499999</v>
-      </c>
-      <c r="S13">
-        <v>9.638560328531807E-06</v>
-      </c>
-      <c r="T13">
-        <v>9.638560328531803E-06</v>
+      <c r="G17">
+        <v>0.1476666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.443</v>
+      </c>
+      <c r="I17">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="J17">
+        <v>0.01302474775576687</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.06004666666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.18014</v>
+      </c>
+      <c r="O17">
+        <v>0.001103506117169219</v>
+      </c>
+      <c r="P17">
+        <v>0.001103506117169219</v>
+      </c>
+      <c r="Q17">
+        <v>0.008866891111111112</v>
+      </c>
+      <c r="R17">
+        <v>0.07980202000000002</v>
+      </c>
+      <c r="S17">
+        <v>1.437288882307479E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.437288882307479E-05</v>
       </c>
     </row>
   </sheetData>
